--- a/target/classes/com/crm/qa/util/testing_excel.xlsx
+++ b/target/classes/com/crm/qa/util/testing_excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.maiya\workspace\Selenium_03_2018\FreeCRMTest\src\main\java\com\crm\qa\util\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Contacts</t>
   </si>
@@ -95,12 +95,16 @@
   </si>
   <si>
     <t>xerox</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,8 +424,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.84375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.90234375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,8 +462,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.47265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,7 +476,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
